--- a/biology/Zoologie/Hirstienus_nanus/Hirstienus_nanus.xlsx
+++ b/biology/Zoologie/Hirstienus_nanus/Hirstienus_nanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hirstienus nanus, unique représentant du genre Hirstienus, est une espèce d'opilions laniatores de la famille des Biantidae. Endémique d'une île des Seychelles, l'espèce n'a pas été enregistrée depuis 1908, elle est donc considérée comme éteinte[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hirstienus nanus, unique représentant du genre Hirstienus, est une espèce d'opilions laniatores de la famille des Biantidae. Endémique d'une île des Seychelles, l'espèce n'a pas été enregistrée depuis 1908, elle est donc considérée comme éteinte.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Mahé aux Seychelles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Mahé aux Seychelles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 1,75 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 1,75 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Phalangodes nanus par Hirst en 1913. Elle est placée dans le genre Hirstienus par Roewer en 1949[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Phalangodes nanus par Hirst en 1913. Elle est placée dans le genre Hirstienus par Roewer en 1949.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur d'Arthur Stanley Hirst[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur d'Arthur Stanley Hirst.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hirst, 1913 : « The Percy Sladen Trust Expedition to the Indian Ocean in 1905 under the leadership of Mr. J. Stanley Gardiner. No. II. - Second report on the Arachnida - The scorpions, pedipalpi, and supplementary notes on the opiliones and pseudoscorpions. » Transactions of the Linnean Society of London, vol. 16, p. 31–37 (texte intégral).
 Roewer, 1949 : « Einige neue Gattungen der Phalangodidae (Opiliones). » Veröffentlichungen aus dem Überseemuseum Bremen, vol. 1, p. 143–144.</t>
